--- a/Code/Results/Cases/Case_4_76/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_76/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.4811357810985</v>
+        <v>8.903493190042076</v>
       </c>
       <c r="C2">
-        <v>7.165665872574054</v>
+        <v>4.239705118142978</v>
       </c>
       <c r="D2">
-        <v>10.9742331704825</v>
+        <v>14.86281281405916</v>
       </c>
       <c r="E2">
-        <v>11.09836820703083</v>
+        <v>16.24890991943681</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.35785462813226</v>
+        <v>35.71289785275818</v>
       </c>
       <c r="H2">
-        <v>9.853660530197338</v>
+        <v>16.14249681061926</v>
       </c>
       <c r="I2">
-        <v>14.85376359464979</v>
+        <v>23.54055837041717</v>
       </c>
       <c r="J2">
-        <v>5.490671963502849</v>
+        <v>9.458183146925867</v>
       </c>
       <c r="K2">
-        <v>11.32340795468363</v>
+        <v>9.120131798354238</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.86317508624666</v>
+        <v>15.97385293951858</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.33731136445088</v>
+        <v>25.4758591615249</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.71596058534378</v>
+        <v>8.61839923276896</v>
       </c>
       <c r="C3">
-        <v>6.759300416586636</v>
+        <v>4.045544567014544</v>
       </c>
       <c r="D3">
-        <v>10.63028676100984</v>
+        <v>14.83772047194483</v>
       </c>
       <c r="E3">
-        <v>10.86215991639966</v>
+        <v>16.25094874113065</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.23434957303962</v>
+        <v>35.82331292212454</v>
       </c>
       <c r="H3">
-        <v>9.934034995720516</v>
+        <v>16.19360292564015</v>
       </c>
       <c r="I3">
-        <v>15.04659538364414</v>
+        <v>23.6372161774884</v>
       </c>
       <c r="J3">
-        <v>5.506801437280169</v>
+        <v>9.477085193874062</v>
       </c>
       <c r="K3">
-        <v>10.70644166982976</v>
+        <v>8.934261629654335</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.36250127327614</v>
+        <v>15.90647155580406</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.40988655107112</v>
+        <v>25.56243972050444</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.21977241358122</v>
+        <v>8.439496576789738</v>
       </c>
       <c r="C4">
-        <v>6.496953962703012</v>
+        <v>3.921635116213413</v>
       </c>
       <c r="D4">
-        <v>10.41995727123736</v>
+        <v>14.82529782661109</v>
       </c>
       <c r="E4">
-        <v>10.72125720538154</v>
+        <v>16.25520922779996</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>25.18491184409434</v>
+        <v>35.90060332007632</v>
       </c>
       <c r="H4">
-        <v>9.988874306586219</v>
+        <v>16.22732630019392</v>
       </c>
       <c r="I4">
-        <v>15.17472814283917</v>
+        <v>23.70063601612198</v>
       </c>
       <c r="J4">
-        <v>5.5187096005819</v>
+        <v>9.489644170281826</v>
       </c>
       <c r="K4">
-        <v>10.30859133595527</v>
+        <v>8.81922249564311</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.04801194152896</v>
+        <v>15.8673641893364</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.46698404081589</v>
+        <v>25.62040445598943</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.0109624279625</v>
+        <v>8.36573396670239</v>
       </c>
       <c r="C5">
-        <v>6.386854146790862</v>
+        <v>3.870023737995834</v>
       </c>
       <c r="D5">
-        <v>10.33458476520674</v>
+        <v>14.82099015926553</v>
       </c>
       <c r="E5">
-        <v>10.66493221157031</v>
+        <v>16.25770306962965</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>25.17117534861833</v>
+        <v>35.93447959354828</v>
       </c>
       <c r="H5">
-        <v>10.01255963085752</v>
+        <v>16.24165850508582</v>
       </c>
       <c r="I5">
-        <v>15.22930655795629</v>
+        <v>23.72750399514458</v>
       </c>
       <c r="J5">
-        <v>5.524056534806546</v>
+        <v>9.495002042695244</v>
       </c>
       <c r="K5">
-        <v>10.14174719778447</v>
+        <v>8.772174535392153</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.91825738475916</v>
+        <v>15.85200874112641</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.49328306660638</v>
+        <v>25.64523221024919</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.975891374203</v>
+        <v>8.353437311876629</v>
       </c>
       <c r="C6">
-        <v>6.368380681286499</v>
+        <v>3.861388257001249</v>
       </c>
       <c r="D6">
-        <v>10.32043289116066</v>
+        <v>14.82032056726586</v>
       </c>
       <c r="E6">
-        <v>10.65564714451593</v>
+        <v>16.25816295707311</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>25.16927465584371</v>
+        <v>35.94024822022777</v>
       </c>
       <c r="H6">
-        <v>10.01657216731582</v>
+        <v>16.24407397758601</v>
       </c>
       <c r="I6">
-        <v>15.2385096555005</v>
+        <v>23.7320272446329</v>
       </c>
       <c r="J6">
-        <v>5.524973959710199</v>
+        <v>9.49590621786383</v>
       </c>
       <c r="K6">
-        <v>10.11376032944202</v>
+        <v>8.764353902540156</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.89662098691785</v>
+        <v>15.84949440372736</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.49782960133841</v>
+        <v>25.64942767936693</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.2169830527952</v>
+        <v>8.43850511087037</v>
       </c>
       <c r="C7">
-        <v>6.495481984205476</v>
+        <v>3.920943500629084</v>
       </c>
       <c r="D7">
-        <v>10.41880436976114</v>
+        <v>14.82523667109994</v>
       </c>
       <c r="E7">
-        <v>10.72049308541062</v>
+        <v>16.25523979165772</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>25.18470094568971</v>
+        <v>35.90105056227561</v>
       </c>
       <c r="H7">
-        <v>9.989188372581825</v>
+        <v>16.22751720151641</v>
       </c>
       <c r="I7">
-        <v>15.17545474428637</v>
+        <v>23.70099422134545</v>
       </c>
       <c r="J7">
-        <v>5.518779722714208</v>
+        <v>9.48971545627572</v>
       </c>
       <c r="K7">
-        <v>10.30636021232177</v>
+        <v>8.818588590642896</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.04626823879094</v>
+        <v>15.86715473267825</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.46732660269631</v>
+        <v>25.62073440786254</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.22278472926046</v>
+        <v>8.806056324922931</v>
       </c>
       <c r="C8">
-        <v>7.028233686007557</v>
+        <v>4.17376783986505</v>
       </c>
       <c r="D8">
-        <v>10.85553505873038</v>
+        <v>14.85354435012443</v>
       </c>
       <c r="E8">
-        <v>11.01610013037273</v>
+        <v>16.24898921987948</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.30965916178807</v>
+        <v>35.7489937012675</v>
       </c>
       <c r="H8">
-        <v>9.880208174169546</v>
+        <v>16.15963184084298</v>
       </c>
       <c r="I8">
-        <v>14.91817919646934</v>
+        <v>23.57304096154725</v>
       </c>
       <c r="J8">
-        <v>5.495811359169197</v>
+        <v>9.464502971759114</v>
       </c>
       <c r="K8">
-        <v>11.11466339735017</v>
+        <v>9.056269646726628</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.69211252216315</v>
+        <v>15.95015683982286</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.35965986046879</v>
+        <v>25.50471429513705</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.98562835957962</v>
+        <v>9.491835752536591</v>
       </c>
       <c r="C9">
-        <v>7.97004035660266</v>
+        <v>4.629984594542059</v>
       </c>
       <c r="D9">
-        <v>11.71369724337741</v>
+        <v>14.93252094616747</v>
       </c>
       <c r="E9">
-        <v>11.6260770001512</v>
+        <v>16.26054345898433</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.7735541320985</v>
+        <v>35.52648003879652</v>
       </c>
       <c r="H9">
-        <v>9.712072345219456</v>
+        <v>16.04509695290822</v>
       </c>
       <c r="I9">
-        <v>14.49501360590817</v>
+        <v>23.35442832997435</v>
       </c>
       <c r="J9">
-        <v>5.467131693155816</v>
+        <v>9.422608363550873</v>
       </c>
       <c r="K9">
-        <v>12.54659378568251</v>
+        <v>9.512522022211146</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.89567685892227</v>
+        <v>16.13036161331248</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.25353328048997</v>
+        <v>25.31537462090641</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.15333381925087</v>
+        <v>9.969078755430054</v>
       </c>
       <c r="C10">
-        <v>8.598435143037632</v>
+        <v>4.938475758559544</v>
       </c>
       <c r="D10">
-        <v>12.33913186656295</v>
+        <v>15.00452930280986</v>
       </c>
       <c r="E10">
-        <v>12.08942634977748</v>
+        <v>16.28344967752554</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>26.25949387929218</v>
+        <v>35.40955118985707</v>
       </c>
       <c r="H10">
-        <v>9.619292462046772</v>
+        <v>15.97226530177916</v>
       </c>
       <c r="I10">
-        <v>14.23994007038896</v>
+        <v>23.21350275386544</v>
       </c>
       <c r="J10">
-        <v>5.456686528552994</v>
+        <v>9.396408868851417</v>
       </c>
       <c r="K10">
-        <v>13.50339669105285</v>
+        <v>9.838442113578227</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.73398003332459</v>
+        <v>16.27263579977531</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.2473276727782</v>
+        <v>25.19961779406831</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.65709071006691</v>
+        <v>10.17947450037075</v>
       </c>
       <c r="C11">
-        <v>8.870479786835887</v>
+        <v>5.07261204098846</v>
       </c>
       <c r="D11">
-        <v>12.62147139136351</v>
+        <v>15.04024391783984</v>
       </c>
       <c r="E11">
-        <v>12.30286383438931</v>
+        <v>16.29697288861528</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.51421373805767</v>
+        <v>35.36654460985829</v>
       </c>
       <c r="H11">
-        <v>9.584461089244849</v>
+        <v>15.94158675819078</v>
       </c>
       <c r="I11">
-        <v>14.1375517260942</v>
+        <v>23.15366727308088</v>
       </c>
       <c r="J11">
-        <v>5.454390371120886</v>
+        <v>9.38548031296428</v>
       </c>
       <c r="K11">
-        <v>13.91782854051966</v>
+        <v>9.98405425135231</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.10416384565722</v>
+        <v>16.33933348325414</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.26178991466451</v>
+        <v>25.15204360689615</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.843928542868</v>
+        <v>10.2581146413375</v>
       </c>
       <c r="C12">
-        <v>8.971513501481862</v>
+        <v>5.122487906940617</v>
       </c>
       <c r="D12">
-        <v>12.72799713787632</v>
+        <v>15.05418569536217</v>
       </c>
       <c r="E12">
-        <v>12.38401904322043</v>
+        <v>16.30253699968341</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.6156605470205</v>
+        <v>35.3517292193386</v>
       </c>
       <c r="H12">
-        <v>9.572394066496262</v>
+        <v>15.9303221494718</v>
       </c>
       <c r="I12">
-        <v>14.10088269028764</v>
+        <v>23.13162366308125</v>
       </c>
       <c r="J12">
-        <v>5.453886770016175</v>
+        <v>9.381483932882972</v>
       </c>
       <c r="K12">
-        <v>14.07176618145698</v>
+        <v>10.03876338320253</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.242660488942</v>
+        <v>16.36485915664697</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.26989372111015</v>
+        <v>25.13476091358304</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.80386379707553</v>
+        <v>10.2412249881114</v>
       </c>
       <c r="C13">
-        <v>8.949842212482109</v>
+        <v>5.111787490237597</v>
       </c>
       <c r="D13">
-        <v>12.70507337650617</v>
+        <v>15.0511646501287</v>
       </c>
       <c r="E13">
-        <v>12.36652685625651</v>
+        <v>16.30131901129707</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.59358803896008</v>
+        <v>35.35485450465998</v>
       </c>
       <c r="H13">
-        <v>9.574941945200587</v>
+        <v>15.93273249910269</v>
       </c>
       <c r="I13">
-        <v>14.10868411934193</v>
+        <v>23.13634379865434</v>
       </c>
       <c r="J13">
-        <v>5.453978746189439</v>
+        <v>9.382338312859391</v>
       </c>
       <c r="K13">
-        <v>14.03874631494773</v>
+        <v>10.02700072238977</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.21290873260429</v>
+        <v>16.35935004630762</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.26802930813352</v>
+        <v>25.13845044372669</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.67254047234295</v>
+        <v>10.18596532079503</v>
       </c>
       <c r="C14">
-        <v>8.878831614122852</v>
+        <v>5.076733909649702</v>
       </c>
       <c r="D14">
-        <v>12.63024355078677</v>
+        <v>15.04138259744954</v>
       </c>
       <c r="E14">
-        <v>12.30953416327629</v>
+        <v>16.29742178843814</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26.52245902868419</v>
+        <v>35.36529624216836</v>
       </c>
       <c r="H14">
-        <v>9.583445454310157</v>
+        <v>15.94065294382872</v>
       </c>
       <c r="I14">
-        <v>14.13449194408078</v>
+        <v>23.15184140810432</v>
       </c>
       <c r="J14">
-        <v>5.454341531022909</v>
+        <v>9.385148683631478</v>
       </c>
       <c r="K14">
-        <v>13.93055317996186</v>
+        <v>9.988564117094665</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.11559218919975</v>
+        <v>16.34142820064913</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.26240315076925</v>
+        <v>25.15060705801503</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.59159085119232</v>
+        <v>10.15198087209373</v>
       </c>
       <c r="C15">
-        <v>8.835077404062028</v>
+        <v>5.055142213079933</v>
       </c>
       <c r="D15">
-        <v>12.58435521078133</v>
+        <v>15.03544492604601</v>
       </c>
       <c r="E15">
-        <v>12.27466617040026</v>
+        <v>16.29509224341483</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>26.47954442736907</v>
+        <v>35.37188373775149</v>
       </c>
       <c r="H15">
-        <v>9.58880224066724</v>
+        <v>15.9455503744763</v>
       </c>
       <c r="I15">
-        <v>14.15057825462181</v>
+        <v>23.16141421859555</v>
       </c>
       <c r="J15">
-        <v>5.454611787990602</v>
+        <v>9.386888604203525</v>
       </c>
       <c r="K15">
-        <v>13.8638912386943</v>
+        <v>9.964963029418882</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.05576164261876</v>
+        <v>16.33048507958787</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.25930333469262</v>
+        <v>25.15814878814352</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.11986173043799</v>
+        <v>9.955187992126547</v>
       </c>
       <c r="C16">
-        <v>8.580378529622132</v>
+        <v>4.929582470485885</v>
       </c>
       <c r="D16">
-        <v>12.32062968903694</v>
+        <v>15.00225412325642</v>
       </c>
       <c r="E16">
-        <v>12.07552671494362</v>
+        <v>16.28262809257411</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>26.24353787588726</v>
+        <v>35.412567218958</v>
       </c>
       <c r="H16">
-        <v>9.621722425361652</v>
+        <v>15.97431957263335</v>
       </c>
       <c r="I16">
-        <v>14.24691777633703</v>
+        <v>23.21749914912778</v>
       </c>
       <c r="J16">
-        <v>5.456887081075551</v>
+        <v>9.39714296634649</v>
       </c>
       <c r="K16">
-        <v>13.47589303482063</v>
+        <v>9.8288683444742</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.70955591298017</v>
+        <v>16.26831540449891</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.24674244349435</v>
+        <v>25.20282931682876</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.82345741378396</v>
+        <v>9.832693850533351</v>
       </c>
       <c r="C17">
-        <v>8.420591158469945</v>
+        <v>4.850947194556792</v>
       </c>
       <c r="D17">
-        <v>12.15822714199052</v>
+        <v>14.98264473558223</v>
       </c>
       <c r="E17">
-        <v>11.95400402367729</v>
+        <v>16.27577444867532</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>26.10748913863725</v>
+        <v>35.44013807579809</v>
       </c>
       <c r="H17">
-        <v>9.643850014767695</v>
+        <v>15.99259677040235</v>
       </c>
       <c r="I17">
-        <v>14.30961080108176</v>
+        <v>23.25299997081471</v>
       </c>
       <c r="J17">
-        <v>5.458920748645526</v>
+        <v>9.403686968733636</v>
       </c>
       <c r="K17">
-        <v>13.23252988674353</v>
+        <v>9.744663281050224</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.49424938135992</v>
+        <v>16.23067163819765</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.24356439064508</v>
+        <v>25.23154265100979</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.65038925033612</v>
+        <v>9.761610960206433</v>
       </c>
       <c r="C18">
-        <v>8.327384828537523</v>
+        <v>4.805136199035807</v>
       </c>
       <c r="D18">
-        <v>12.06461680965463</v>
+        <v>14.97164482972035</v>
       </c>
       <c r="E18">
-        <v>11.88436032981964</v>
+        <v>16.27212469355381</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>26.03239827021246</v>
+        <v>35.45695445845747</v>
       </c>
       <c r="H18">
-        <v>9.657267411601195</v>
+        <v>16.00334021542086</v>
       </c>
       <c r="I18">
-        <v>14.34694548575412</v>
+        <v>23.27382120220784</v>
       </c>
       <c r="J18">
-        <v>5.460320777388905</v>
+        <v>9.407544081170423</v>
       </c>
       <c r="K18">
-        <v>13.09059365331704</v>
+        <v>9.695984053378053</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.36936351465853</v>
+        <v>16.20920692673938</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.24335487494683</v>
+        <v>25.24853626001585</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.59134692074712</v>
+        <v>9.737437942422273</v>
       </c>
       <c r="C19">
-        <v>8.295603331230236</v>
+        <v>4.789526325537659</v>
       </c>
       <c r="D19">
-        <v>12.03289003802704</v>
+        <v>14.96796858219419</v>
       </c>
       <c r="E19">
-        <v>11.86082524458515</v>
+        <v>16.27093923564855</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>26.00751182877238</v>
+        <v>35.46281261122532</v>
       </c>
       <c r="H19">
-        <v>9.661927008580056</v>
+        <v>16.00701741722449</v>
       </c>
       <c r="I19">
-        <v>14.35980129028734</v>
+        <v>23.28093996123713</v>
       </c>
       <c r="J19">
-        <v>5.460833977855419</v>
+        <v>9.408866045076405</v>
       </c>
       <c r="K19">
-        <v>13.04220008238664</v>
+        <v>9.67946130472019</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.32690209878746</v>
+        <v>16.20197192513165</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.24355759990062</v>
+        <v>25.25437213261738</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.85527747720021</v>
+        <v>9.84579902242456</v>
       </c>
       <c r="C20">
-        <v>8.437735424612724</v>
+        <v>4.859378508694159</v>
       </c>
       <c r="D20">
-        <v>12.17553653751316</v>
+        <v>14.9847033791021</v>
       </c>
       <c r="E20">
-        <v>11.96691452738262</v>
+        <v>16.2764738019124</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>26.12164349647094</v>
+        <v>35.43710388159292</v>
       </c>
       <c r="H20">
-        <v>9.641422621923383</v>
+        <v>15.99062723614133</v>
       </c>
       <c r="I20">
-        <v>14.30280404551211</v>
+        <v>23.24917922904423</v>
       </c>
       <c r="J20">
-        <v>5.458680333092554</v>
+        <v>9.402980707337978</v>
       </c>
       <c r="K20">
-        <v>13.25863923776879</v>
+        <v>9.753652958149504</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.51727813476539</v>
+        <v>16.23465963991197</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.24373417652719</v>
+        <v>25.22843653770492</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.71121961545804</v>
+        <v>10.20222494163621</v>
       </c>
       <c r="C21">
-        <v>8.899742938523257</v>
+        <v>5.087055122670702</v>
       </c>
       <c r="D21">
-        <v>12.65223403362005</v>
+        <v>15.0442445600521</v>
       </c>
       <c r="E21">
-        <v>12.3262656977501</v>
+        <v>16.29855449597459</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.54321481373749</v>
+        <v>35.36218930603917</v>
       </c>
       <c r="H21">
-        <v>9.580916778731044</v>
+        <v>15.93831694560371</v>
       </c>
       <c r="I21">
-        <v>14.1268533013816</v>
+        <v>23.14727269568603</v>
       </c>
       <c r="J21">
-        <v>5.454224937061661</v>
+        <v>9.384319357396972</v>
       </c>
       <c r="K21">
-        <v>13.96241350822393</v>
+        <v>9.999865959088124</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.14422266479808</v>
+        <v>16.34668511398575</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.26398325292638</v>
+        <v>25.14701647078693</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.2477687005461</v>
+        <v>10.42912737767258</v>
       </c>
       <c r="C22">
-        <v>9.190133632507946</v>
+        <v>5.230490893048212</v>
       </c>
       <c r="D22">
-        <v>12.9614816104051</v>
+        <v>15.08558722025238</v>
       </c>
       <c r="E22">
-        <v>12.56303193214783</v>
+        <v>16.31556694362422</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.84787856511584</v>
+        <v>35.32180031614879</v>
       </c>
       <c r="H22">
-        <v>9.547949078578871</v>
+        <v>15.90618487910141</v>
       </c>
       <c r="I22">
-        <v>14.02419183608913</v>
+        <v>23.08425456926602</v>
       </c>
       <c r="J22">
-        <v>5.45345217087634</v>
+        <v>9.372950790018493</v>
       </c>
       <c r="K22">
-        <v>14.40489501649261</v>
+        <v>10.15824720754004</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.54412649449221</v>
+        <v>16.42145901694373</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.29259716323799</v>
+        <v>25.09807468226003</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.96348555919845</v>
+        <v>10.3085986987606</v>
       </c>
       <c r="C23">
-        <v>9.03620206001268</v>
+        <v>5.154435211732271</v>
       </c>
       <c r="D23">
-        <v>12.79666366064291</v>
+        <v>15.06330234765549</v>
       </c>
       <c r="E23">
-        <v>12.43650625535972</v>
+        <v>16.30625197766311</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.68256230950546</v>
+        <v>35.342570632458</v>
       </c>
       <c r="H23">
-        <v>9.5649212924281</v>
+        <v>15.92314627977111</v>
       </c>
       <c r="I23">
-        <v>14.07780628689956</v>
+        <v>23.11756046732473</v>
       </c>
       <c r="J23">
-        <v>5.453664511695396</v>
+        <v>9.378942771095874</v>
       </c>
       <c r="K23">
-        <v>14.17033288392225</v>
+        <v>10.07396357910858</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.33161258027457</v>
+        <v>16.38141336977341</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.27587110704961</v>
+        <v>25.12380455636217</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.84089991769635</v>
+        <v>9.839876222777153</v>
       </c>
       <c r="C24">
-        <v>8.429988683466213</v>
+        <v>4.855568586193541</v>
       </c>
       <c r="D24">
-        <v>12.16771171050273</v>
+        <v>14.98377181294971</v>
       </c>
       <c r="E24">
-        <v>11.96107699535841</v>
+        <v>16.27615671922761</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>26.11523458798431</v>
+        <v>35.4384726336572</v>
       </c>
       <c r="H24">
-        <v>9.642517883177447</v>
+        <v>15.99151692856227</v>
       </c>
       <c r="I24">
-        <v>14.30587736709886</v>
+        <v>23.2509053051319</v>
       </c>
       <c r="J24">
-        <v>5.45878830689394</v>
+        <v>9.403299712554283</v>
       </c>
       <c r="K24">
-        <v>13.24684150255551</v>
+        <v>9.749589557982429</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.50687026567131</v>
+        <v>16.23285611123205</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.24365238862402</v>
+        <v>25.22983929798857</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.53116567130231</v>
+        <v>9.310638533717537</v>
       </c>
       <c r="C25">
-        <v>7.726386705002318</v>
+        <v>4.511094705029181</v>
       </c>
       <c r="D25">
-        <v>11.48202427711558</v>
+        <v>14.90867433126586</v>
       </c>
       <c r="E25">
-        <v>11.45816132610011</v>
+        <v>16.25487737352177</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.62335578948434</v>
+        <v>35.578529230723</v>
       </c>
       <c r="H25">
-        <v>9.752383368414366</v>
+        <v>16.07409323550415</v>
       </c>
       <c r="I25">
-        <v>14.60017161184637</v>
+        <v>23.41011107973682</v>
       </c>
       <c r="J25">
-        <v>5.473072898374295</v>
+        <v>9.433136110365375</v>
       </c>
       <c r="K25">
-        <v>12.17585454611609</v>
+        <v>9.390497356742786</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.57768067693418</v>
+        <v>16.07982009432348</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.27020978133223</v>
+        <v>25.36250084574717</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_76/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_76/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.903493190042076</v>
+        <v>12.48113578109857</v>
       </c>
       <c r="C2">
-        <v>4.239705118142978</v>
+        <v>7.165665872574061</v>
       </c>
       <c r="D2">
-        <v>14.86281281405916</v>
+        <v>10.97423317048251</v>
       </c>
       <c r="E2">
-        <v>16.24890991943681</v>
+        <v>11.09836820703068</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.71289785275818</v>
+        <v>25.35785462813194</v>
       </c>
       <c r="H2">
-        <v>16.14249681061926</v>
+        <v>9.853660530197278</v>
       </c>
       <c r="I2">
-        <v>23.54055837041717</v>
+        <v>14.85376359464967</v>
       </c>
       <c r="J2">
-        <v>9.458183146925867</v>
+        <v>5.490671963502758</v>
       </c>
       <c r="K2">
-        <v>9.120131798354238</v>
+        <v>11.32340795468367</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.97385293951858</v>
+        <v>11.8631750862466</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.4758591615249</v>
+        <v>16.33731136445071</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.61839923276896</v>
+        <v>11.71596058534376</v>
       </c>
       <c r="C3">
-        <v>4.045544567014544</v>
+        <v>6.759300416586787</v>
       </c>
       <c r="D3">
-        <v>14.83772047194483</v>
+        <v>10.63028676100981</v>
       </c>
       <c r="E3">
-        <v>16.25094874113065</v>
+        <v>10.86215991639962</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>35.82331292212454</v>
+        <v>25.2343495730396</v>
       </c>
       <c r="H3">
-        <v>16.19360292564015</v>
+        <v>9.934034995720344</v>
       </c>
       <c r="I3">
-        <v>23.6372161774884</v>
+        <v>15.04659538364408</v>
       </c>
       <c r="J3">
-        <v>9.477085193874062</v>
+        <v>5.506801437280133</v>
       </c>
       <c r="K3">
-        <v>8.934261629654335</v>
+        <v>10.70644166982977</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.90647155580406</v>
+        <v>11.36250127327613</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.56243972050444</v>
+        <v>16.40988655107101</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.439496576789738</v>
+        <v>11.21977241358124</v>
       </c>
       <c r="C4">
-        <v>3.921635116213413</v>
+        <v>6.496953962702984</v>
       </c>
       <c r="D4">
-        <v>14.82529782661109</v>
+        <v>10.41995727123739</v>
       </c>
       <c r="E4">
-        <v>16.25520922779996</v>
+        <v>10.72125720538154</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>35.90060332007632</v>
+        <v>25.18491184409451</v>
       </c>
       <c r="H4">
-        <v>16.22732630019392</v>
+        <v>9.988874306586167</v>
       </c>
       <c r="I4">
-        <v>23.70063601612198</v>
+        <v>15.1747281428392</v>
       </c>
       <c r="J4">
-        <v>9.489644170281826</v>
+        <v>5.518709600581905</v>
       </c>
       <c r="K4">
-        <v>8.81922249564311</v>
+        <v>10.30859133595526</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.8673641893364</v>
+        <v>11.04801194152896</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.62040445598943</v>
+        <v>16.46698404081592</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.36573396670239</v>
+        <v>11.01096242796254</v>
       </c>
       <c r="C5">
-        <v>3.870023737995834</v>
+        <v>6.386854146790862</v>
       </c>
       <c r="D5">
-        <v>14.82099015926553</v>
+        <v>10.33458476520673</v>
       </c>
       <c r="E5">
-        <v>16.25770306962965</v>
+        <v>10.66493221157026</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>35.93447959354828</v>
+        <v>25.17117534861833</v>
       </c>
       <c r="H5">
-        <v>16.24165850508582</v>
+        <v>10.01255963085752</v>
       </c>
       <c r="I5">
-        <v>23.72750399514458</v>
+        <v>15.2293065579563</v>
       </c>
       <c r="J5">
-        <v>9.495002042695244</v>
+        <v>5.524056534806484</v>
       </c>
       <c r="K5">
-        <v>8.772174535392153</v>
+        <v>10.14174719778449</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.85200874112641</v>
+        <v>10.91825738475912</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.64523221024919</v>
+        <v>16.49328306660638</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.353437311876629</v>
+        <v>10.975891374203</v>
       </c>
       <c r="C6">
-        <v>3.861388257001249</v>
+        <v>6.368380681286316</v>
       </c>
       <c r="D6">
-        <v>14.82032056726586</v>
+        <v>10.32043289116059</v>
       </c>
       <c r="E6">
-        <v>16.25816295707311</v>
+        <v>10.65564714451599</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>35.94024822022777</v>
+        <v>25.16927465584394</v>
       </c>
       <c r="H6">
-        <v>16.24407397758601</v>
+        <v>10.01657216731589</v>
       </c>
       <c r="I6">
-        <v>23.7320272446329</v>
+        <v>15.23850965550063</v>
       </c>
       <c r="J6">
-        <v>9.49590621786383</v>
+        <v>5.52497395971022</v>
       </c>
       <c r="K6">
-        <v>8.764353902540156</v>
+        <v>10.11376032944194</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.84949440372736</v>
+        <v>10.8966209869179</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.64942767936693</v>
+        <v>16.49782960133857</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.43850511087037</v>
+        <v>11.2169830527953</v>
       </c>
       <c r="C7">
-        <v>3.920943500629084</v>
+        <v>6.495481984205194</v>
       </c>
       <c r="D7">
-        <v>14.82523667109994</v>
+        <v>10.41880436976109</v>
       </c>
       <c r="E7">
-        <v>16.25523979165772</v>
+        <v>10.72049308541057</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>35.90105056227561</v>
+        <v>25.18470094568956</v>
       </c>
       <c r="H7">
-        <v>16.22751720151641</v>
+        <v>9.989188372581717</v>
       </c>
       <c r="I7">
-        <v>23.70099422134545</v>
+        <v>15.17545474428614</v>
       </c>
       <c r="J7">
-        <v>9.48971545627572</v>
+        <v>5.518779722714208</v>
       </c>
       <c r="K7">
-        <v>8.818588590642896</v>
+        <v>10.30636021232178</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.86715473267825</v>
+        <v>11.04626823879092</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.62073440786254</v>
+        <v>16.46732660269615</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.806056324922931</v>
+        <v>12.22278472926052</v>
       </c>
       <c r="C8">
-        <v>4.17376783986505</v>
+        <v>7.028233686007676</v>
       </c>
       <c r="D8">
-        <v>14.85354435012443</v>
+        <v>10.85553505873049</v>
       </c>
       <c r="E8">
-        <v>16.24898921987948</v>
+        <v>11.01610013037276</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.7489937012675</v>
+        <v>25.30965916178772</v>
       </c>
       <c r="H8">
-        <v>16.15963184084298</v>
+        <v>9.880208174169422</v>
       </c>
       <c r="I8">
-        <v>23.57304096154725</v>
+        <v>14.91817919646923</v>
       </c>
       <c r="J8">
-        <v>9.464502971759114</v>
+        <v>5.495811359169225</v>
       </c>
       <c r="K8">
-        <v>9.056269646726628</v>
+        <v>11.11466339735024</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.95015683982286</v>
+        <v>11.69211252216313</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.50471429513705</v>
+        <v>16.35965986046858</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.491835752536591</v>
+        <v>13.98562835957964</v>
       </c>
       <c r="C9">
-        <v>4.629984594542059</v>
+        <v>7.970040356602554</v>
       </c>
       <c r="D9">
-        <v>14.93252094616747</v>
+        <v>11.7136972433774</v>
       </c>
       <c r="E9">
-        <v>16.26054345898433</v>
+        <v>11.62607700015118</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>35.52648003879652</v>
+        <v>25.77355413209844</v>
       </c>
       <c r="H9">
-        <v>16.04509695290822</v>
+        <v>9.712072345219395</v>
       </c>
       <c r="I9">
-        <v>23.35442832997435</v>
+        <v>14.4950136059081</v>
       </c>
       <c r="J9">
-        <v>9.422608363550873</v>
+        <v>5.467131693155787</v>
       </c>
       <c r="K9">
-        <v>9.512522022211146</v>
+        <v>12.54659378568254</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.13036161331248</v>
+        <v>12.89567685892226</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.31537462090641</v>
+        <v>16.2535332804899</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.969078755430054</v>
+        <v>15.15333381925076</v>
       </c>
       <c r="C10">
-        <v>4.938475758559544</v>
+        <v>8.598435143037769</v>
       </c>
       <c r="D10">
-        <v>15.00452930280986</v>
+        <v>12.33913186656304</v>
       </c>
       <c r="E10">
-        <v>16.28344967752554</v>
+        <v>12.08942634977753</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>35.40955118985707</v>
+        <v>26.25949387929231</v>
       </c>
       <c r="H10">
-        <v>15.97226530177916</v>
+        <v>9.619292462046866</v>
       </c>
       <c r="I10">
-        <v>23.21350275386544</v>
+        <v>14.2399400703892</v>
       </c>
       <c r="J10">
-        <v>9.396408868851417</v>
+        <v>5.456686528552992</v>
       </c>
       <c r="K10">
-        <v>9.838442113578227</v>
+        <v>13.50339669105282</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.27263579977531</v>
+        <v>13.73398003332462</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.19961779406831</v>
+        <v>16.24732767277832</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.17947450037075</v>
+        <v>15.65709071006693</v>
       </c>
       <c r="C11">
-        <v>5.07261204098846</v>
+        <v>8.870479786835784</v>
       </c>
       <c r="D11">
-        <v>15.04024391783984</v>
+        <v>12.62147139136346</v>
       </c>
       <c r="E11">
-        <v>16.29697288861528</v>
+        <v>12.30286383438932</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>35.36654460985829</v>
+        <v>26.51421373805764</v>
       </c>
       <c r="H11">
-        <v>15.94158675819078</v>
+        <v>9.584461089244799</v>
       </c>
       <c r="I11">
-        <v>23.15366727308088</v>
+        <v>14.13755172609413</v>
       </c>
       <c r="J11">
-        <v>9.38548031296428</v>
+        <v>5.454390371120944</v>
       </c>
       <c r="K11">
-        <v>9.98405425135231</v>
+        <v>13.91782854051968</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.33933348325414</v>
+        <v>14.10416384565722</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.15204360689615</v>
+        <v>16.26178991466448</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.2581146413375</v>
+        <v>15.84392854286807</v>
       </c>
       <c r="C12">
-        <v>5.122487906940617</v>
+        <v>8.971513501481668</v>
       </c>
       <c r="D12">
-        <v>15.05418569536217</v>
+        <v>12.72799713787629</v>
       </c>
       <c r="E12">
-        <v>16.30253699968341</v>
+        <v>12.38401904322037</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>35.3517292193386</v>
+        <v>26.61566054702055</v>
       </c>
       <c r="H12">
-        <v>15.9303221494718</v>
+        <v>9.57239406649629</v>
       </c>
       <c r="I12">
-        <v>23.13162366308125</v>
+        <v>14.10088269028762</v>
       </c>
       <c r="J12">
-        <v>9.381483932882972</v>
+        <v>5.453886770016141</v>
       </c>
       <c r="K12">
-        <v>10.03876338320253</v>
+        <v>14.07176618145697</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.36485915664697</v>
+        <v>14.24266048894199</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.13476091358304</v>
+        <v>16.26989372111016</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.2412249881114</v>
+        <v>15.80386379707558</v>
       </c>
       <c r="C13">
-        <v>5.111787490237597</v>
+        <v>8.949842212482048</v>
       </c>
       <c r="D13">
-        <v>15.0511646501287</v>
+        <v>12.7050733765062</v>
       </c>
       <c r="E13">
-        <v>16.30131901129707</v>
+        <v>12.36652685625655</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>35.35485450465998</v>
+        <v>26.59358803896017</v>
       </c>
       <c r="H13">
-        <v>15.93273249910269</v>
+        <v>9.574941945200624</v>
       </c>
       <c r="I13">
-        <v>23.13634379865434</v>
+        <v>14.10868411934194</v>
       </c>
       <c r="J13">
-        <v>9.382338312859391</v>
+        <v>5.453978746189414</v>
       </c>
       <c r="K13">
-        <v>10.02700072238977</v>
+        <v>14.03874631494775</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.35935004630762</v>
+        <v>14.21290873260429</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.13845044372669</v>
+        <v>16.26802930813357</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.18596532079503</v>
+        <v>15.67254047234298</v>
       </c>
       <c r="C14">
-        <v>5.076733909649702</v>
+        <v>8.878831614122852</v>
       </c>
       <c r="D14">
-        <v>15.04138259744954</v>
+        <v>12.6302435507868</v>
       </c>
       <c r="E14">
-        <v>16.29742178843814</v>
+        <v>12.30953416327627</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>35.36529624216836</v>
+        <v>26.52245902868412</v>
       </c>
       <c r="H14">
-        <v>15.94065294382872</v>
+        <v>9.583445454310107</v>
       </c>
       <c r="I14">
-        <v>23.15184140810432</v>
+        <v>14.13449194408071</v>
       </c>
       <c r="J14">
-        <v>9.385148683631478</v>
+        <v>5.454341531022878</v>
       </c>
       <c r="K14">
-        <v>9.988564117094665</v>
+        <v>13.9305531799619</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.34142820064913</v>
+        <v>14.11559218919973</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.15060705801503</v>
+        <v>16.26240315076921</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.15198087209373</v>
+        <v>15.59159085119229</v>
       </c>
       <c r="C15">
-        <v>5.055142213079933</v>
+        <v>8.835077404062003</v>
       </c>
       <c r="D15">
-        <v>15.03544492604601</v>
+        <v>12.58435521078143</v>
       </c>
       <c r="E15">
-        <v>16.29509224341483</v>
+        <v>12.27466617040029</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>35.37188373775149</v>
+        <v>26.47954442736919</v>
       </c>
       <c r="H15">
-        <v>15.9455503744763</v>
+        <v>9.58880224066726</v>
       </c>
       <c r="I15">
-        <v>23.16141421859555</v>
+        <v>14.15057825462189</v>
       </c>
       <c r="J15">
-        <v>9.386888604203525</v>
+        <v>5.454611787990522</v>
       </c>
       <c r="K15">
-        <v>9.964963029418882</v>
+        <v>13.86389123869427</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.33048507958787</v>
+        <v>14.05576164261877</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.15814878814352</v>
+        <v>16.25930333469272</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.955187992126547</v>
+        <v>15.11986173043807</v>
       </c>
       <c r="C16">
-        <v>4.929582470485885</v>
+        <v>8.580378529621846</v>
       </c>
       <c r="D16">
-        <v>15.00225412325642</v>
+        <v>12.3206296890369</v>
       </c>
       <c r="E16">
-        <v>16.28262809257411</v>
+        <v>12.07552671494357</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>35.412567218958</v>
+        <v>26.24353787588698</v>
       </c>
       <c r="H16">
-        <v>15.97431957263335</v>
+        <v>9.621722425361607</v>
       </c>
       <c r="I16">
-        <v>23.21749914912778</v>
+        <v>14.24691777633679</v>
       </c>
       <c r="J16">
-        <v>9.39714296634649</v>
+        <v>5.456887081075521</v>
       </c>
       <c r="K16">
-        <v>9.8288683444742</v>
+        <v>13.47589303482068</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.26831540449891</v>
+        <v>13.70955591298016</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.20282931682876</v>
+        <v>16.24674244349417</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.832693850533351</v>
+        <v>14.82345741378386</v>
       </c>
       <c r="C17">
-        <v>4.850947194556792</v>
+        <v>8.420591158469959</v>
       </c>
       <c r="D17">
-        <v>14.98264473558223</v>
+        <v>12.15822714199055</v>
       </c>
       <c r="E17">
-        <v>16.27577444867532</v>
+        <v>11.95400402367727</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>35.44013807579809</v>
+        <v>26.10748913863746</v>
       </c>
       <c r="H17">
-        <v>15.99259677040235</v>
+        <v>9.643850014767663</v>
       </c>
       <c r="I17">
-        <v>23.25299997081471</v>
+        <v>14.30961080108179</v>
       </c>
       <c r="J17">
-        <v>9.403686968733636</v>
+        <v>5.458920748645476</v>
       </c>
       <c r="K17">
-        <v>9.744663281050224</v>
+        <v>13.2325298867435</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.23067163819765</v>
+        <v>13.49424938135992</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.23154265100979</v>
+        <v>16.24356439064507</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.761610960206433</v>
+        <v>14.6503892503362</v>
       </c>
       <c r="C18">
-        <v>4.805136199035807</v>
+        <v>8.327384828537493</v>
       </c>
       <c r="D18">
-        <v>14.97164482972035</v>
+        <v>12.06461680965457</v>
       </c>
       <c r="E18">
-        <v>16.27212469355381</v>
+        <v>11.88436032981964</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>35.45695445845747</v>
+        <v>26.03239827021209</v>
       </c>
       <c r="H18">
-        <v>16.00334021542086</v>
+        <v>9.657267411601095</v>
       </c>
       <c r="I18">
-        <v>23.27382120220784</v>
+        <v>14.34694548575389</v>
       </c>
       <c r="J18">
-        <v>9.407544081170423</v>
+        <v>5.460320777388934</v>
       </c>
       <c r="K18">
-        <v>9.695984053378053</v>
+        <v>13.09059365331706</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.20920692673938</v>
+        <v>13.36936351465852</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.24853626001585</v>
+        <v>16.24335487494661</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.737437942422273</v>
+        <v>14.59134692074713</v>
       </c>
       <c r="C19">
-        <v>4.789526325537659</v>
+        <v>8.29560333123036</v>
       </c>
       <c r="D19">
-        <v>14.96796858219419</v>
+        <v>12.03289003802712</v>
       </c>
       <c r="E19">
-        <v>16.27093923564855</v>
+        <v>11.86082524458514</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>35.46281261122532</v>
+        <v>26.00751182877237</v>
       </c>
       <c r="H19">
-        <v>16.00701741722449</v>
+        <v>9.661927008580056</v>
       </c>
       <c r="I19">
-        <v>23.28093996123713</v>
+        <v>14.35980129028736</v>
       </c>
       <c r="J19">
-        <v>9.408866045076405</v>
+        <v>5.460833977855368</v>
       </c>
       <c r="K19">
-        <v>9.67946130472019</v>
+        <v>13.04220008238667</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.20197192513165</v>
+        <v>13.32690209878744</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.25437213261738</v>
+        <v>16.24355759990059</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.84579902242456</v>
+        <v>14.85527747720018</v>
       </c>
       <c r="C20">
-        <v>4.859378508694159</v>
+        <v>8.437735424612857</v>
       </c>
       <c r="D20">
-        <v>14.9847033791021</v>
+        <v>12.17553653751313</v>
       </c>
       <c r="E20">
-        <v>16.2764738019124</v>
+        <v>11.96691452738262</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>35.43710388159292</v>
+        <v>26.12164349647125</v>
       </c>
       <c r="H20">
-        <v>15.99062723614133</v>
+        <v>9.641422621923383</v>
       </c>
       <c r="I20">
-        <v>23.24917922904423</v>
+        <v>14.30280404551229</v>
       </c>
       <c r="J20">
-        <v>9.402980707337978</v>
+        <v>5.458680333092554</v>
       </c>
       <c r="K20">
-        <v>9.753652958149504</v>
+        <v>13.25863923776881</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.23465963991197</v>
+        <v>13.51727813476536</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.22843653770492</v>
+        <v>16.24373417652727</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.20222494163621</v>
+        <v>15.7112196154581</v>
       </c>
       <c r="C21">
-        <v>5.087055122670702</v>
+        <v>8.899742938523273</v>
       </c>
       <c r="D21">
-        <v>15.0442445600521</v>
+        <v>12.65223403362005</v>
       </c>
       <c r="E21">
-        <v>16.29855449597459</v>
+        <v>12.32626569775008</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>35.36218930603917</v>
+        <v>26.54321481373747</v>
       </c>
       <c r="H21">
-        <v>15.93831694560371</v>
+        <v>9.580916778730977</v>
       </c>
       <c r="I21">
-        <v>23.14727269568603</v>
+        <v>14.12685330138157</v>
       </c>
       <c r="J21">
-        <v>9.384319357396972</v>
+        <v>5.454224937061605</v>
       </c>
       <c r="K21">
-        <v>9.999865959088124</v>
+        <v>13.96241350822399</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.34668511398575</v>
+        <v>14.14422266479804</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.14701647078693</v>
+        <v>16.26398325292627</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.42912737767258</v>
+        <v>16.24776870054608</v>
       </c>
       <c r="C22">
-        <v>5.230490893048212</v>
+        <v>9.190133632507875</v>
       </c>
       <c r="D22">
-        <v>15.08558722025238</v>
+        <v>12.96148161040515</v>
       </c>
       <c r="E22">
-        <v>16.31556694362422</v>
+        <v>12.56303193214781</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>35.32180031614879</v>
+        <v>26.84787856511597</v>
       </c>
       <c r="H22">
-        <v>15.90618487910141</v>
+        <v>9.547949078578883</v>
       </c>
       <c r="I22">
-        <v>23.08425456926602</v>
+        <v>14.02419183608919</v>
       </c>
       <c r="J22">
-        <v>9.372950790018493</v>
+        <v>5.453452170876314</v>
       </c>
       <c r="K22">
-        <v>10.15824720754004</v>
+        <v>14.40489501649257</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.42145901694373</v>
+        <v>14.54412649449219</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.09807468226003</v>
+        <v>16.29259716323806</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.3085986987606</v>
+        <v>15.96348555919841</v>
       </c>
       <c r="C23">
-        <v>5.154435211732271</v>
+        <v>9.03620206001262</v>
       </c>
       <c r="D23">
-        <v>15.06330234765549</v>
+        <v>12.79666366064287</v>
       </c>
       <c r="E23">
-        <v>16.30625197766311</v>
+        <v>12.43650625535965</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>35.342570632458</v>
+        <v>26.68256230950559</v>
       </c>
       <c r="H23">
-        <v>15.92314627977111</v>
+        <v>9.5649212924281</v>
       </c>
       <c r="I23">
-        <v>23.11756046732473</v>
+        <v>14.07780628689963</v>
       </c>
       <c r="J23">
-        <v>9.378942771095874</v>
+        <v>5.453664511695364</v>
       </c>
       <c r="K23">
-        <v>10.07396357910858</v>
+        <v>14.17033288392217</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.38141336977341</v>
+        <v>14.33161258027454</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.12380455636217</v>
+        <v>16.27587110704967</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.839876222777153</v>
+        <v>14.8408999176964</v>
       </c>
       <c r="C24">
-        <v>4.855568586193541</v>
+        <v>8.429988683466046</v>
       </c>
       <c r="D24">
-        <v>14.98377181294971</v>
+        <v>12.16771171050282</v>
       </c>
       <c r="E24">
-        <v>16.27615671922761</v>
+        <v>11.96107699535842</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>35.4384726336572</v>
+        <v>26.11523458798433</v>
       </c>
       <c r="H24">
-        <v>15.99151692856227</v>
+        <v>9.642517883177417</v>
       </c>
       <c r="I24">
-        <v>23.2509053051319</v>
+        <v>14.30587736709886</v>
       </c>
       <c r="J24">
-        <v>9.403299712554283</v>
+        <v>5.458788306893855</v>
       </c>
       <c r="K24">
-        <v>9.749589557982429</v>
+        <v>13.2468415025555</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.23285611123205</v>
+        <v>13.50687026567128</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.22983929798857</v>
+        <v>16.24365238862402</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.310638533717537</v>
+        <v>13.53116567130235</v>
       </c>
       <c r="C25">
-        <v>4.511094705029181</v>
+        <v>7.726386705002472</v>
       </c>
       <c r="D25">
-        <v>14.90867433126586</v>
+        <v>11.48202427711549</v>
       </c>
       <c r="E25">
-        <v>16.25487737352177</v>
+        <v>11.45816132610013</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>35.578529230723</v>
+        <v>25.62335578948433</v>
       </c>
       <c r="H25">
-        <v>16.07409323550415</v>
+        <v>9.752383368414298</v>
       </c>
       <c r="I25">
-        <v>23.41011107973682</v>
+        <v>14.60017161184642</v>
       </c>
       <c r="J25">
-        <v>9.433136110365375</v>
+        <v>5.47307289837438</v>
       </c>
       <c r="K25">
-        <v>9.390497356742786</v>
+        <v>12.17585454611617</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.07982009432348</v>
+        <v>12.57768067693416</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.36250084574717</v>
+        <v>16.2702097813322</v>
       </c>
     </row>
   </sheetData>
